--- a/results/partialCoop_EUandOthers_20statRateCond.xlsx
+++ b/results/partialCoop_EUandOthers_20statRateCond.xlsx
@@ -605,13 +605,13 @@
         <v>2191562303.650852</v>
       </c>
       <c r="G5" t="n">
-        <v>5698548217.235033</v>
+        <v>5698404405.152068</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7890110520.885885</v>
+        <v>7889966708.80292</v>
       </c>
     </row>
     <row r="6">
@@ -638,13 +638,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G6" t="n">
-        <v>975394579.6212209</v>
+        <v>975343494.3121085</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4589683400.202789</v>
+        <v>4589632314.893677</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G7" t="n">
-        <v>2281147200.060121</v>
+        <v>2281057948.462371</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6896210161.64279</v>
+        <v>6586302784.296295</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>113249462.5681134</v>
+        <v>113244439.1373782</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>142059890.6027845</v>
+        <v>142054867.1720493</v>
       </c>
     </row>
     <row r="10">
@@ -836,13 +836,13 @@
         <v>2089590478.182052</v>
       </c>
       <c r="G12" t="n">
-        <v>7808159845.54374</v>
+        <v>7807946821.722609</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9897750323.725792</v>
+        <v>9897537299.904661</v>
       </c>
     </row>
     <row r="13">
@@ -1034,13 +1034,13 @@
         <v>5451031606.8659</v>
       </c>
       <c r="G18" t="n">
-        <v>583716866.7031071</v>
+        <v>583707431.6534904</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6034748473.569007</v>
+        <v>6034739038.51939</v>
       </c>
     </row>
     <row r="19">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G19" t="n">
-        <v>19623931.84448974</v>
+        <v>19622777.78672275</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>327727900.2455114</v>
+        <v>327620864.0030528</v>
       </c>
     </row>
     <row r="20">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D20" t="n">
         <v>230335606.2153436</v>
@@ -1097,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G20" t="n">
-        <v>669826671.9626803</v>
+        <v>669786592.1546844</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>982679044.149079</v>
+        <v>982609475.5460892</v>
       </c>
     </row>
     <row r="21">
@@ -1133,13 +1133,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G21" t="n">
-        <v>10405049450.45389</v>
+        <v>10404710010.56149</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30796526463.86324</v>
+        <v>30796187023.97084</v>
       </c>
     </row>
     <row r="22">
@@ -1166,13 +1166,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G22" t="n">
-        <v>712909355.9214514</v>
+        <v>712886171.6421026</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4448183061.780381</v>
+        <v>4448159877.501032</v>
       </c>
     </row>
     <row r="23">
@@ -1199,13 +1199,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G23" t="n">
-        <v>3441620757.621263</v>
+        <v>3441484491.978375</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8111760226.862057</v>
+        <v>8111623961.21917</v>
       </c>
     </row>
     <row r="24">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D24" t="n">
         <v>8409755.638419209</v>
@@ -1229,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G24" t="n">
-        <v>26695019.38996319</v>
+        <v>26693522.47114414</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>142406447.0786204</v>
+        <v>142404949.7552902</v>
       </c>
     </row>
     <row r="25">
@@ -1265,13 +1265,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G25" t="n">
-        <v>433558658.5530162</v>
+        <v>433541276.978987</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2066396588.254576</v>
+        <v>2066379206.680547</v>
       </c>
     </row>
     <row r="26">
@@ -1298,13 +1298,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G26" t="n">
-        <v>5985590447.024928</v>
+        <v>5985373393.008614</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14620805404.66176</v>
+        <v>14620588350.64544</v>
       </c>
     </row>
     <row r="27">
@@ -1331,13 +1331,13 @@
         <v>5177797295.531481</v>
       </c>
       <c r="G27" t="n">
-        <v>22434022568.88881</v>
+        <v>22433457532.04351</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27611819864.42029</v>
+        <v>27611254827.575</v>
       </c>
     </row>
     <row r="28">
@@ -1361,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>53395758.35301419</v>
+        <v>53376676.45428631</v>
       </c>
       <c r="G28" t="n">
-        <v>12301038.72235318</v>
+        <v>12300710.84730662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65696797.07536737</v>
+        <v>65677387.30159294</v>
       </c>
     </row>
     <row r="29">
@@ -1397,13 +1397,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G29" t="n">
-        <v>244986024.0730567</v>
+        <v>244976364.8790484</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>471055590.352671</v>
+        <v>471045931.1586627</v>
       </c>
     </row>
     <row r="30">
@@ -1463,13 +1463,13 @@
         <v>3521255259.4</v>
       </c>
       <c r="G31" t="n">
-        <v>8767600361.618948</v>
+        <v>8767350819.546227</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12288855621.01895</v>
+        <v>12288606078.94623</v>
       </c>
     </row>
     <row r="32">
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>67991118.20362659</v>
+        <v>67986274.48103294</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>102082206.7353595</v>
+        <v>102077363.0127658</v>
       </c>
     </row>
     <row r="33">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D33" t="n">
         <v>150448858.6162017</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G33" t="n">
-        <v>541883613.9691068</v>
+        <v>541860476.9737756</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1344701797.70913</v>
+        <v>1344647425.638372</v>
       </c>
     </row>
     <row r="34">
@@ -1595,13 +1595,13 @@
         <v>180391379.5159</v>
       </c>
       <c r="G35" t="n">
-        <v>87246461.2964479</v>
+        <v>87242986.96530814</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>267637840.8123479</v>
+        <v>267634366.4812081</v>
       </c>
     </row>
     <row r="36">
@@ -1661,13 +1661,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G37" t="n">
-        <v>10142622502.00697</v>
+        <v>10142474223.53591</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26679035427.03591</v>
+        <v>26678887148.56486</v>
       </c>
     </row>
     <row r="38">
@@ -1760,13 +1760,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G40" t="n">
-        <v>3625454003.145187</v>
+        <v>3625299380.469217</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>10251186787.61623</v>
+        <v>10251032164.94026</v>
       </c>
     </row>
     <row r="41">
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>180823143.8144658</v>
+        <v>180758523.5332983</v>
       </c>
       <c r="G41" t="n">
-        <v>180525763.4346326</v>
+        <v>180522768.7297002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>361348907.2490984</v>
+        <v>361281292.2629985</v>
       </c>
     </row>
     <row r="42">
@@ -1826,13 +1826,13 @@
         <v>3813626854.655982</v>
       </c>
       <c r="G42" t="n">
-        <v>8239234161.64359</v>
+        <v>8239069215.37194</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>12052861016.29957</v>
+        <v>12052696070.02792</v>
       </c>
     </row>
     <row r="43">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2927450759.612351</v>
+        <v>2927363856.143127</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2927450759.612351</v>
+        <v>2927363856.143127</v>
       </c>
     </row>
     <row r="45">
@@ -1955,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>51541948.04045695</v>
+        <v>51523528.63294066</v>
       </c>
       <c r="G46" t="n">
-        <v>4344727.957423521</v>
+        <v>4344158.570506491</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55886675.99788047</v>
+        <v>55867687.20344716</v>
       </c>
     </row>
     <row r="47">
@@ -1991,13 +1991,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G47" t="n">
-        <v>38505507.12477501</v>
+        <v>38503503.10070726</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>77402953.81012926</v>
+        <v>77400949.7860615</v>
       </c>
     </row>
     <row r="48">
@@ -2024,13 +2024,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G48" t="n">
-        <v>1365265215.715179</v>
+        <v>1365228603.664255</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>9022454774.357044</v>
+        <v>9022418162.30612</v>
       </c>
     </row>
     <row r="49">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D49" t="n">
         <v>26010754.65499776</v>
@@ -2054,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G49" t="n">
-        <v>20626690.66599838</v>
+        <v>20625581.98597502</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>211037337.7532695</v>
+        <v>211036198.3507674</v>
       </c>
     </row>
     <row r="50">
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G53" t="n">
-        <v>102119886.8393285</v>
+        <v>102116603.5635912</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>262266580.836385</v>
+        <v>262245027.4951087</v>
       </c>
     </row>
     <row r="54">
@@ -2222,13 +2222,13 @@
         <v>924691864.6264492</v>
       </c>
       <c r="G54" t="n">
-        <v>1107772474.650903</v>
+        <v>1107736124.741022</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2032464339.277352</v>
+        <v>2032427989.367471</v>
       </c>
     </row>
     <row r="55">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D55" t="n">
         <v>1983589528.839027</v>
@@ -2255,13 +2255,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G55" t="n">
-        <v>5829128900.240168</v>
+        <v>5828968853.619052</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>13533760945.96693</v>
+        <v>12321348638.09288</v>
       </c>
     </row>
     <row r="56">
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>564728280.136566</v>
+        <v>564703859.1353827</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>564728280.136566</v>
+        <v>564703859.1353827</v>
       </c>
     </row>
     <row r="58">
@@ -2408,7 +2408,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D60" t="n">
         <v>658415208.1593025</v>
@@ -2417,16 +2417,16 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G60" t="n">
-        <v>1459611489.467003</v>
+        <v>1459543303.485809</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>6233056832.371575</v>
+        <v>6232958610.344149</v>
       </c>
     </row>
     <row r="61">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D62" t="n">
         <v>2837951661.945522</v>
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G62" t="n">
-        <v>534195443.7120618</v>
+        <v>534163933.2773733</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>3448053322.968848</v>
+        <v>3447994686.133183</v>
       </c>
     </row>
     <row r="63">
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>138858776.856345</v>
+        <v>138855364.1606155</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>138858776.856345</v>
+        <v>138855364.1606155</v>
       </c>
     </row>
     <row r="64">
@@ -2552,13 +2552,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G64" t="n">
-        <v>400389145.7439296</v>
+        <v>400366459.678767</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2338521510.562993</v>
+        <v>2338498824.49783</v>
       </c>
     </row>
     <row r="65">
@@ -2651,13 +2651,13 @@
         <v>879364677.5498993</v>
       </c>
       <c r="G67" t="n">
-        <v>13458333365.09733</v>
+        <v>13458006236.06995</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>14337698042.64723</v>
+        <v>14337370913.61985</v>
       </c>
     </row>
     <row r="68">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D68" t="n">
         <v>80799421.41225857</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G68" t="n">
-        <v>315833171.6401061</v>
+        <v>315818225.8416229</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>412346739.3571926</v>
+        <v>412326177.8364567</v>
       </c>
     </row>
     <row r="69">
@@ -2717,13 +2717,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G69" t="n">
-        <v>56556389.70484301</v>
+        <v>56553428.27433369</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>90025594.47811849</v>
+        <v>90022633.04760917</v>
       </c>
     </row>
     <row r="70">
@@ -2750,13 +2750,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G70" t="n">
-        <v>1403997247.377517</v>
+        <v>1403943044.187603</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>4759453938.083256</v>
+        <v>4759399734.893341</v>
       </c>
     </row>
     <row r="71">
@@ -3146,13 +3146,13 @@
         <v>1722654285.431804</v>
       </c>
       <c r="G5" t="n">
-        <v>5154183798.647031</v>
+        <v>5154062974.982392</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6876838084.078835</v>
+        <v>6876717260.414196</v>
       </c>
     </row>
     <row r="6">
@@ -3170,7 +3170,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D6" t="n">
-        <v>714766412.0522585</v>
+        <v>714420470.4278558</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G6" t="n">
-        <v>854882641.8033504</v>
+        <v>854839722.501099</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2874100214.761032</v>
+        <v>2873711353.834378</v>
       </c>
     </row>
     <row r="7">
@@ -3203,22 +3203,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D7" t="n">
-        <v>425274971.2724407</v>
+        <v>424670573.5846787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G7" t="n">
-        <v>2043324593.762152</v>
+        <v>2043249609.067593</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5437787294.816443</v>
+        <v>5256383453.33452</v>
       </c>
     </row>
     <row r="8">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>17691648.3787363</v>
+        <v>17657630.50121331</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>99447361.31459883</v>
+        <v>99443140.88125294</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>117139009.6933351</v>
+        <v>117100771.3824663</v>
       </c>
     </row>
     <row r="10">
@@ -3377,13 +3377,13 @@
         <v>1646667351.289297</v>
       </c>
       <c r="G12" t="n">
-        <v>7066201004.44119</v>
+        <v>7066022032.562097</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8712868355.730486</v>
+        <v>8712689383.851393</v>
       </c>
     </row>
     <row r="13">
@@ -3575,13 +3575,13 @@
         <v>4649505875.760603</v>
       </c>
       <c r="G18" t="n">
-        <v>528324153.4514382</v>
+        <v>528316226.5982334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5177830029.212041</v>
+        <v>5177822102.358836</v>
       </c>
     </row>
     <row r="19">
@@ -3599,22 +3599,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7745972.435273441</v>
+        <v>7738157.338810182</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G19" t="n">
-        <v>16527780.0229772</v>
+        <v>16526810.44180057</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>254031014.8609505</v>
+        <v>253933273.3077084</v>
       </c>
     </row>
     <row r="20">
@@ -3629,25 +3629,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D20" t="n">
-        <v>146601108.8743423</v>
+        <v>146329694.7608774</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G20" t="n">
-        <v>586397970.0120939</v>
+        <v>586364296.977254</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>796987792.6542075</v>
+        <v>796657930.5064487</v>
       </c>
     </row>
     <row r="21">
@@ -3665,7 +3665,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D21" t="n">
-        <v>2275645370.143687</v>
+        <v>2273346736.939631</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G21" t="n">
-        <v>9333653765.563585</v>
+        <v>9333368585.2722</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21705083961.87201</v>
+        <v>21702500148.37656</v>
       </c>
     </row>
     <row r="22">
@@ -3698,7 +3698,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D22" t="n">
-        <v>176269732.8179283</v>
+        <v>176112732.5492032</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3707,13 +3707,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G22" t="n">
-        <v>605443766.7515503</v>
+        <v>605424288.4884226</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2904343503.645344</v>
+        <v>2904167025.113492</v>
       </c>
     </row>
     <row r="23">
@@ -3731,7 +3731,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D23" t="n">
-        <v>742710702.850801</v>
+        <v>741787933.493623</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G23" t="n">
-        <v>3049242423.702049</v>
+        <v>3049127940.176057</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5227734675.680183</v>
+        <v>5226697422.797012</v>
       </c>
     </row>
     <row r="24">
@@ -3761,25 +3761,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D24" t="n">
-        <v>5113525.748619992</v>
+        <v>5103388.851401196</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G24" t="n">
-        <v>22787715.66580188</v>
+        <v>22786458.03004794</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>86238072.4010364</v>
+        <v>85499256.454321</v>
       </c>
     </row>
     <row r="25">
@@ -3797,7 +3797,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D25" t="n">
-        <v>78046648.26917876</v>
+        <v>77928943.00207147</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3806,13 +3806,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G25" t="n">
-        <v>376281349.2963984</v>
+        <v>376266746.1738505</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1628540479.082065</v>
+        <v>1628408170.69241</v>
       </c>
     </row>
     <row r="26">
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2207870852.406487</v>
+        <v>2206400996.976586</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G26" t="n">
-        <v>5373704415.223249</v>
+        <v>5373522057.377267</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12281043856.93877</v>
+        <v>12279391643.66289</v>
       </c>
     </row>
     <row r="27">
@@ -3872,13 +3872,13 @@
         <v>4000730113.1155</v>
       </c>
       <c r="G27" t="n">
-        <v>20149370298.47275</v>
+        <v>20148895582.99059</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24150100411.58825</v>
+        <v>24149625696.10609</v>
       </c>
     </row>
     <row r="28">
@@ -3902,16 +3902,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>41406444.58682031</v>
+        <v>41390412.93714918</v>
       </c>
       <c r="G28" t="n">
-        <v>11003642.97595057</v>
+        <v>11003367.51185985</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>52410087.56277088</v>
+        <v>52393780.44900903</v>
       </c>
     </row>
     <row r="29">
@@ -3929,7 +3929,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D29" t="n">
-        <v>46598158.71800169</v>
+        <v>46532748.18562557</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -3938,13 +3938,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G29" t="n">
-        <v>218611028.6668534</v>
+        <v>218602913.4988266</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>358996939.1539221</v>
+        <v>358923413.4535192</v>
       </c>
     </row>
     <row r="30">
@@ -4004,13 +4004,13 @@
         <v>3032372853.033728</v>
       </c>
       <c r="G31" t="n">
-        <v>6883618584.759868</v>
+        <v>6883408932.086142</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9915991437.793596</v>
+        <v>9915781785.119869</v>
       </c>
     </row>
     <row r="32">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>21265926.96263812</v>
+        <v>21233126.04019459</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>58340007.67144836</v>
+        <v>58335938.21982654</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>79605934.63408649</v>
+        <v>79569064.26002112</v>
       </c>
     </row>
     <row r="33">
@@ -4058,25 +4058,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D33" t="n">
-        <v>100979984.0033045</v>
+        <v>100823303.9344605</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G33" t="n">
-        <v>471303284.761223</v>
+        <v>471283846.223744</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>947215692.0158563</v>
+        <v>943183264.7454122</v>
       </c>
     </row>
     <row r="34">
@@ -4136,13 +4136,13 @@
         <v>130523759.4982921</v>
       </c>
       <c r="G35" t="n">
-        <v>78447163.19524914</v>
+        <v>78444244.23731585</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>208970922.6935412</v>
+        <v>208968003.735608</v>
       </c>
     </row>
     <row r="36">
@@ -4193,7 +4193,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D37" t="n">
-        <v>689331642.0359846</v>
+        <v>688327523.7085592</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4202,13 +4202,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G37" t="n">
-        <v>9355467573.092945</v>
+        <v>9355342996.994116</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23924848978.54236</v>
+        <v>23923720284.11611</v>
       </c>
     </row>
     <row r="38">
@@ -4292,7 +4292,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D40" t="n">
-        <v>1151482628.879023</v>
+        <v>1150435548.600482</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -4301,13 +4301,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G40" t="n">
-        <v>3225292547.297207</v>
+        <v>3225162641.117129</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8369492183.661751</v>
+        <v>8368315197.203131</v>
       </c>
     </row>
     <row r="41">
@@ -4331,16 +4331,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>140221690.1737414</v>
+        <v>140167399.4700697</v>
       </c>
       <c r="G41" t="n">
-        <v>166435958.6514292</v>
+        <v>166433442.6512644</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>306657648.8251706</v>
+        <v>306600842.1213341</v>
       </c>
     </row>
     <row r="42">
@@ -4367,13 +4367,13 @@
         <v>3066532914.569443</v>
       </c>
       <c r="G42" t="n">
-        <v>7523158018.178483</v>
+        <v>7523019438.633577</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10589690932.74793</v>
+        <v>10589552353.20302</v>
       </c>
     </row>
     <row r="43">
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2522846609.071468</v>
+        <v>2522773597.156162</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2522846609.071468</v>
+        <v>2522773597.156162</v>
       </c>
     </row>
     <row r="45">
@@ -4496,16 +4496,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39968882.94617655</v>
+        <v>39953407.88823488</v>
       </c>
       <c r="G46" t="n">
-        <v>3538279.722674784</v>
+        <v>3537801.35248158</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>43507162.66885134</v>
+        <v>43491209.24071646</v>
       </c>
     </row>
     <row r="47">
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>15265995.55273783</v>
+        <v>15252424.61907046</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4532,13 +4532,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>33057653.81544247</v>
+        <v>33055970.13541434</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>48323649.3681803</v>
+        <v>48308394.7544848</v>
       </c>
     </row>
     <row r="48">
@@ -4556,7 +4556,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D48" t="n">
-        <v>312829996.2127462</v>
+        <v>312582065.2010871</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -4565,13 +4565,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G48" t="n">
-        <v>1237290176.266823</v>
+        <v>1237259416.666716</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>7392068629.282535</v>
+        <v>7391789938.67077</v>
       </c>
     </row>
     <row r="49">
@@ -4586,25 +4586,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D49" t="n">
-        <v>18940225.66326296</v>
+        <v>18932717.85769441</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G49" t="n">
-        <v>16718146.02453832</v>
+        <v>16717214.56745507</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>125057386.952036</v>
+        <v>123934990.7592167</v>
       </c>
     </row>
     <row r="50">
@@ -4718,25 +4718,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D53" t="n">
-        <v>8520477.10107418</v>
+        <v>8498243.277658716</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G53" t="n">
-        <v>92371446.83504215</v>
+        <v>92368688.39222968</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>192486464.7373258</v>
+        <v>191798335.0436239</v>
       </c>
     </row>
     <row r="54">
@@ -4763,13 +4763,13 @@
         <v>515238726.4426726</v>
       </c>
       <c r="G54" t="n">
-        <v>969216505.5305398</v>
+        <v>969185966.1681259</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1484455231.973212</v>
+        <v>1484424692.610798</v>
       </c>
     </row>
     <row r="55">
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D55" t="n">
-        <v>1435536287.855133</v>
+        <v>1434452477.478903</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -4796,13 +4796,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G55" t="n">
-        <v>5261486667.124573</v>
+        <v>5261352204.019125</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>10546562613.35099</v>
+        <v>9333092078.616381</v>
       </c>
     </row>
     <row r="56">
@@ -4862,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>502395201.8841721</v>
+        <v>502374684.5896841</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>502395201.8841721</v>
+        <v>502374684.5896841</v>
       </c>
     </row>
     <row r="58">
@@ -4949,25 +4949,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D60" t="n">
-        <v>444773708.7856682</v>
+        <v>444311964.117672</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G60" t="n">
-        <v>1294346737.65673</v>
+        <v>1294289451.231591</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3995815720.434441</v>
+        <v>3967944273.625796</v>
       </c>
     </row>
     <row r="61">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D62" t="n">
-        <v>1952029704.187203</v>
+        <v>1951816320.512891</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G62" t="n">
-        <v>468656933.7231057</v>
+        <v>468630460.2438616</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2479549114.590847</v>
+        <v>2479286467.202237</v>
       </c>
     </row>
     <row r="63">
@@ -5060,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>124034229.2899985</v>
+        <v>124031362.1150308</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>124034229.2899985</v>
+        <v>124031362.1150308</v>
       </c>
     </row>
     <row r="64">
@@ -5084,7 +5084,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D64" t="n">
-        <v>146745201.4690755</v>
+        <v>146591575.027932</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -5093,13 +5093,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G64" t="n">
-        <v>351687198.9124666</v>
+        <v>351668139.2237905</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1995149054.352007</v>
+        <v>1994976368.222187</v>
       </c>
     </row>
     <row r="65">
@@ -5192,13 +5192,13 @@
         <v>736775253.5752609</v>
       </c>
       <c r="G67" t="n">
-        <v>11664699585.9479</v>
+        <v>11664424748.6249</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>12401474839.52316</v>
+        <v>12401200002.20016</v>
       </c>
     </row>
     <row r="68">
@@ -5213,25 +5213,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D68" t="n">
-        <v>51891101.4048551</v>
+        <v>51789890.82406195</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G68" t="n">
-        <v>280393847.2202681</v>
+        <v>280381290.5135821</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>344470690.4943238</v>
+        <v>344352205.1600145</v>
       </c>
     </row>
     <row r="69">
@@ -5249,7 +5249,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D69" t="n">
-        <v>11355836.07437777</v>
+        <v>11335781.73588492</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G69" t="n">
-        <v>50044624.05358145</v>
+        <v>50042136.00891001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>69521432.05032684</v>
+        <v>69498889.66716255</v>
       </c>
     </row>
     <row r="70">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>440221477.5979795</v>
+        <v>439854422.1784795</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -5291,13 +5291,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G70" t="n">
-        <v>1174552301.297756</v>
+        <v>1174506762.509182</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3692783416.347232</v>
+        <v>3692370822.139158</v>
       </c>
     </row>
     <row r="71">
@@ -5687,13 +5687,13 @@
         <v>1900670090.947202</v>
       </c>
       <c r="G5" t="n">
-        <v>5362927868.638056</v>
+        <v>5362796231.656738</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7263597959.585258</v>
+        <v>7263466322.60394</v>
       </c>
     </row>
     <row r="6">
@@ -5711,7 +5711,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D6" t="n">
-        <v>834108722.3351675</v>
+        <v>833894307.5478402</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G6" t="n">
-        <v>900992126.763011</v>
+        <v>900945366.3257612</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3542873540.252677</v>
+        <v>3542612365.0281</v>
       </c>
     </row>
     <row r="7">
@@ -5744,22 +5744,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D7" t="n">
-        <v>506586274.4060569</v>
+        <v>506211668.4247549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G7" t="n">
-        <v>2134699793.931642</v>
+        <v>2134618098.355976</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6002383784.021179</v>
+        <v>5772198722.37642</v>
       </c>
     </row>
     <row r="8">
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21953545.56337618</v>
+        <v>21932461.26631591</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5819,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>104657692.5057963</v>
+        <v>104653094.3576838</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>126611238.0691725</v>
+        <v>126585555.6239997</v>
       </c>
     </row>
     <row r="10">
@@ -5918,13 +5918,13 @@
         <v>1811646370.101917</v>
       </c>
       <c r="G12" t="n">
-        <v>7350619947.284586</v>
+        <v>7350424958.016756</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9162266317.386503</v>
+        <v>9162071328.118673</v>
       </c>
     </row>
     <row r="13">
@@ -6116,13 +6116,13 @@
         <v>4950814183.823895</v>
       </c>
       <c r="G18" t="n">
-        <v>549418069.0561484</v>
+        <v>549409432.7759103</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5500232252.880044</v>
+        <v>5500223616.599806</v>
       </c>
     </row>
     <row r="19">
@@ -6140,22 +6140,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9296854.408497756</v>
+        <v>9292010.607902771</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G19" t="n">
-        <v>17700684.96934212</v>
+        <v>17699628.61387059</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>282821429.8891958</v>
+        <v>282718611.5126241</v>
       </c>
     </row>
     <row r="20">
@@ -6170,25 +6170,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D20" t="n">
-        <v>178674880.4808883</v>
+        <v>178506657.8811457</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G20" t="n">
-        <v>618494216.5228703</v>
+        <v>618457529.8632545</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>868417516.0252087</v>
+        <v>868185614.4862335</v>
       </c>
     </row>
     <row r="21">
@@ -6206,7 +6206,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D21" t="n">
-        <v>2710212558.77474</v>
+        <v>2708787864.795106</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6215,13 +6215,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G21" t="n">
-        <v>9742171741.180378</v>
+        <v>9741861038.200115</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>25300118385.25494</v>
+        <v>25298382988.29504</v>
       </c>
     </row>
     <row r="22">
@@ -6239,7 +6239,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D22" t="n">
-        <v>205548163.2622397</v>
+        <v>205450854.4192026</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G22" t="n">
-        <v>642334527.0572684</v>
+        <v>642313305.5542862</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3506829650.701635</v>
+        <v>3506711120.355616</v>
       </c>
     </row>
     <row r="23">
@@ -6272,7 +6272,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D23" t="n">
-        <v>869078538.9972538</v>
+        <v>868506606.1001557</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G23" t="n">
-        <v>3200010814.747183</v>
+        <v>3199886085.325863</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6343455044.314897</v>
+        <v>6342758381.996479</v>
       </c>
     </row>
     <row r="24">
@@ -6302,25 +6302,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D24" t="n">
-        <v>6377352.920076165</v>
+        <v>6371070.066241852</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G24" t="n">
-        <v>24189745.22853786</v>
+        <v>24188375.03856109</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107520340.8088498</v>
+        <v>107061831.4588177</v>
       </c>
     </row>
     <row r="25">
@@ -6338,7 +6338,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D25" t="n">
-        <v>95316146.84230922</v>
+        <v>95243193.06041701</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6347,13 +6347,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G25" t="n">
-        <v>397085519.0232255</v>
+        <v>397069608.9697128</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1801133227.922554</v>
+        <v>1801044364.087148</v>
       </c>
     </row>
     <row r="26">
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2591670515.630512</v>
+        <v>2590759498.519032</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G26" t="n">
-        <v>5608664772.906904</v>
+        <v>5608466094.639394</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13173617427.27819</v>
+        <v>13172507731.8992</v>
       </c>
     </row>
     <row r="27">
@@ -6413,13 +6413,13 @@
         <v>4466477062.895829</v>
       </c>
       <c r="G27" t="n">
-        <v>21020444258.30275</v>
+        <v>21019927057.36168</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25486921321.19858</v>
+        <v>25486404120.2575</v>
       </c>
     </row>
     <row r="28">
@@ -6443,16 +6443,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46104125.87471173</v>
+        <v>46086659.44564293</v>
       </c>
       <c r="G28" t="n">
-        <v>11496345.44040776</v>
+        <v>11496045.32319585</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>57600471.31511949</v>
+        <v>57582704.76883878</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D29" t="n">
-        <v>57030898.03258886</v>
+        <v>56990356.55275796</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G29" t="n">
-        <v>228706045.3548011</v>
+        <v>228697203.9061899</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>402415794.4115068</v>
+        <v>402366411.4830646</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>3183724758.661142</v>
       </c>
       <c r="G31" t="n">
-        <v>7574905605.818681</v>
+        <v>7574677189.927001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>10758630364.47982</v>
+        <v>10758401948.58814</v>
       </c>
     </row>
     <row r="32">
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>26185083.36818747</v>
+        <v>26164753.34047827</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>62067915.3822849</v>
+        <v>62063481.72825931</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>88252998.75047237</v>
+        <v>88228235.06873758</v>
       </c>
     </row>
     <row r="33">
@@ -6599,25 +6599,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D33" t="n">
-        <v>119914972.7512848</v>
+        <v>119817862.3682899</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G33" t="n">
-        <v>497925050.7857945</v>
+        <v>497903872.5637748</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1098481923.18292</v>
+        <v>1095961166.757854</v>
       </c>
     </row>
     <row r="34">
@@ -6677,13 +6677,13 @@
         <v>149757393.7450894</v>
       </c>
       <c r="G35" t="n">
-        <v>81853774.0568244</v>
+        <v>81850593.86185117</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>231611167.8019137</v>
+        <v>231607987.6069405</v>
       </c>
     </row>
     <row r="36">
@@ -6734,7 +6734,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D37" t="n">
-        <v>799026739.3736469</v>
+        <v>798404386.3451608</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -6743,13 +6743,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G37" t="n">
-        <v>9659229618.449375</v>
+        <v>9659093893.20347</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>25024011218.75438</v>
+        <v>25023253140.47998</v>
       </c>
     </row>
     <row r="38">
@@ -6833,7 +6833,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D40" t="n">
-        <v>1340075915.726344</v>
+        <v>1339426934.859628</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -6842,13 +6842,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G40" t="n">
-        <v>3379083680.214189</v>
+        <v>3378942147.862467</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9100142160.443817</v>
+        <v>9099351647.225378</v>
       </c>
     </row>
     <row r="41">
@@ -6872,16 +6872,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>156130247.8067085</v>
+        <v>156071098.2653807</v>
       </c>
       <c r="G41" t="n">
-        <v>171895325.8628642</v>
+        <v>171892584.6890414</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>328025573.6695727</v>
+        <v>327963682.9544221</v>
       </c>
     </row>
     <row r="42">
@@ -6908,13 +6908,13 @@
         <v>3345759104.605494</v>
       </c>
       <c r="G42" t="n">
-        <v>7798891739.632852</v>
+        <v>7798740757.678958</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>11144650844.23835</v>
+        <v>11144499862.28445</v>
       </c>
     </row>
     <row r="43">
@@ -6974,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2647732632.256252</v>
+        <v>2647653086.01703</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2647732632.256252</v>
+        <v>2647653086.01703</v>
       </c>
     </row>
     <row r="45">
@@ -7037,16 +7037,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44503468.69454916</v>
+        <v>44486608.67032093</v>
       </c>
       <c r="G46" t="n">
-        <v>3851099.568747896</v>
+        <v>3850578.38601127</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>48354568.26329705</v>
+        <v>48337187.0563322</v>
       </c>
     </row>
     <row r="47">
@@ -7064,7 +7064,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D47" t="n">
-        <v>17939713.8843772</v>
+        <v>17931302.61307919</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -7073,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>35015402.15187003</v>
+        <v>35013567.7880716</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>57539733.13094267</v>
+        <v>57529487.49584624</v>
       </c>
     </row>
     <row r="48">
@@ -7097,7 +7097,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D48" t="n">
-        <v>355572762.2428184</v>
+        <v>355419094.4810145</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -7106,13 +7106,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G48" t="n">
-        <v>1286220275.065798</v>
+        <v>1286186762.583648</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>8036870914.704214</v>
+        <v>8036683734.460261</v>
       </c>
     </row>
     <row r="49">
@@ -7127,25 +7127,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D49" t="n">
-        <v>21622485.87350532</v>
+        <v>21617832.53195657</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G49" t="n">
-        <v>18035022.4449584</v>
+        <v>18034007.62555996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>157572044.9040439</v>
+        <v>156875933.5715713</v>
       </c>
     </row>
     <row r="50">
@@ -7259,25 +7259,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D53" t="n">
-        <v>10414029.41025744</v>
+        <v>10400248.87567352</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G53" t="n">
-        <v>96102996.25102368</v>
+        <v>96099990.93674144</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>219187708.1333247</v>
+        <v>218752699.7406858</v>
       </c>
     </row>
     <row r="54">
@@ -7304,13 +7304,13 @@
         <v>621614539.260121</v>
       </c>
       <c r="G54" t="n">
-        <v>1020922029.715902</v>
+        <v>1020888757.181986</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1642536568.976023</v>
+        <v>1642503296.442107</v>
       </c>
     </row>
     <row r="55">
@@ -7325,10 +7325,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D55" t="n">
-        <v>1643721590.824049</v>
+        <v>1643049844.624892</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -7337,13 +7337,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G55" t="n">
-        <v>5477402003.758297</v>
+        <v>5477255506.651522</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>11713894783.50148</v>
+        <v>10500824278.94262</v>
       </c>
     </row>
     <row r="56">
@@ -7403,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>526349452.8677716</v>
+        <v>526327099.3435735</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>526349452.8677716</v>
+        <v>526327099.3435735</v>
       </c>
     </row>
     <row r="58">
@@ -7490,25 +7490,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D60" t="n">
-        <v>526108096.1325513</v>
+        <v>525821906.5623922</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G60" t="n">
-        <v>1357681695.25285</v>
+        <v>1357619281.882934</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4847242419.425937</v>
+        <v>4829928923.224421</v>
       </c>
     </row>
     <row r="61">
@@ -7556,25 +7556,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D62" t="n">
-        <v>2286003572.026678</v>
+        <v>2285871316.721391</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G62" t="n">
-        <v>493952046.7507746</v>
+        <v>493923203.9830677</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2845496214.239267</v>
+        <v>2845310286.280878</v>
       </c>
     </row>
     <row r="63">
@@ -7601,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>129481371.2103852</v>
+        <v>129478247.432781</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>129481371.2103852</v>
+        <v>129478247.432781</v>
       </c>
     </row>
     <row r="64">
@@ -7625,7 +7625,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D64" t="n">
-        <v>174062770.3404473</v>
+        <v>173967552.5973888</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -7634,13 +7634,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G64" t="n">
-        <v>370456612.2993288</v>
+        <v>370435846.8318214</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>2128581995.131619</v>
+        <v>2128466011.921053</v>
       </c>
     </row>
     <row r="65">
@@ -7733,13 +7733,13 @@
         <v>790088783.3426948</v>
       </c>
       <c r="G67" t="n">
-        <v>12335210689.27203</v>
+        <v>12334911254.92146</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>13125299472.61472</v>
+        <v>13125000038.26416</v>
       </c>
     </row>
     <row r="68">
@@ -7754,25 +7754,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D68" t="n">
-        <v>62960476.80213422</v>
+        <v>62897746.43485475</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G68" t="n">
-        <v>293976732.6450028</v>
+        <v>293963052.1547745</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>370505459.090894</v>
+        <v>370423907.9370354</v>
       </c>
     </row>
     <row r="69">
@@ -7790,7 +7790,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D69" t="n">
-        <v>14093408.05024763</v>
+        <v>14080978.36148046</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G69" t="n">
-        <v>52572626.86225463</v>
+        <v>52569916.14584894</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>77498242.10657798</v>
+        <v>77483101.70140512</v>
       </c>
     </row>
     <row r="70">
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>510147499.0530168</v>
+        <v>509919997.9252028</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -7832,13 +7832,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G70" t="n">
-        <v>1254299173.454641</v>
+        <v>1254249559.095743</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>4111209653.012055</v>
+        <v>4110932537.525343</v>
       </c>
     </row>
     <row r="71">
